--- a/PARSER_ETL/movimentação_produtos/tratados/xpt_tbl_movint_produto_fev-2021_tratado.xlsx
+++ b/PARSER_ETL/movimentação_produtos/tratados/xpt_tbl_movint_produto_fev-2021_tratado.xlsx
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>9503547933</v>
+        <v>2858526061</v>
       </c>
     </row>
     <row r="3">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>7538243623</v>
+        <v>6464116360</v>
       </c>
     </row>
     <row r="4">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>89378883</v>
+        <v>8843403852</v>
       </c>
     </row>
     <row r="5">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>37592704</v>
+        <v>9706577756</v>
       </c>
     </row>
     <row r="6">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>6879173054</v>
+        <v>6194747867</v>
       </c>
     </row>
     <row r="7">
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2428931479</v>
+        <v>6494865944</v>
       </c>
     </row>
     <row r="8">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3226204467</v>
+        <v>9445206538</v>
       </c>
     </row>
     <row r="9">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>7101782978</v>
+        <v>2958382020</v>
       </c>
     </row>
     <row r="10">
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>7543523222</v>
+        <v>471772592</v>
       </c>
     </row>
     <row r="11">
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>124898165</v>
+        <v>7108348875</v>
       </c>
     </row>
     <row r="12">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4954316551</v>
+        <v>4713378553</v>
       </c>
     </row>
     <row r="13">
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1207899611</v>
+        <v>7538142156</v>
       </c>
     </row>
     <row r="14">
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>6907820355</v>
+        <v>6023965439</v>
       </c>
     </row>
     <row r="15">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>9107561961</v>
+        <v>2759188170</v>
       </c>
     </row>
     <row r="16">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>9082163844</v>
+        <v>4679690086</v>
       </c>
     </row>
     <row r="17">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>8044752954</v>
+        <v>1344411470</v>
       </c>
     </row>
     <row r="18">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>7475700890</v>
+        <v>8392532733</v>
       </c>
     </row>
     <row r="19">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3022395606</v>
+        <v>748600990</v>
       </c>
     </row>
     <row r="20">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3136343919</v>
+        <v>2454082116</v>
       </c>
     </row>
     <row r="21">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>5223930951</v>
+        <v>439870006</v>
       </c>
     </row>
     <row r="22">
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4535900463</v>
+        <v>6137688442</v>
       </c>
     </row>
     <row r="23">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>129984080</v>
+        <v>1602636367</v>
       </c>
     </row>
     <row r="24">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>48454440</v>
+        <v>1707828314</v>
       </c>
     </row>
     <row r="25">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>5980051582</v>
+        <v>9835142071</v>
       </c>
     </row>
     <row r="26">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>69296175</v>
+        <v>8793010285</v>
       </c>
     </row>
     <row r="27">
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>7138321893</v>
+        <v>4871089107</v>
       </c>
     </row>
     <row r="28">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3296609950</v>
+        <v>1428633777</v>
       </c>
     </row>
     <row r="29">
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>9016048971</v>
+        <v>4076721574</v>
       </c>
     </row>
     <row r="30">
@@ -1919,7 +1919,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4846446733</v>
+        <v>8104192940</v>
       </c>
     </row>
     <row r="31">
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4284657008</v>
+        <v>986964686</v>
       </c>
     </row>
     <row r="32">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>9875299155</v>
+        <v>9300200385</v>
       </c>
     </row>
     <row r="33">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>6718514731</v>
+        <v>3163544860</v>
       </c>
     </row>
     <row r="34">
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>6468655937</v>
+        <v>9951402047</v>
       </c>
     </row>
     <row r="35">
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>9110828837</v>
+        <v>3118981795</v>
       </c>
     </row>
     <row r="36">
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1992258283</v>
+        <v>5488910358</v>
       </c>
     </row>
     <row r="37">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3470510050</v>
+        <v>1650226034</v>
       </c>
     </row>
     <row r="38">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4852125316</v>
+        <v>2171104345</v>
       </c>
     </row>
     <row r="39">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>966659118</v>
+        <v>2915577115</v>
       </c>
     </row>
     <row r="40">
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>98046485</v>
+        <v>5025152250</v>
       </c>
     </row>
     <row r="41">
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>6887257740</v>
+        <v>4279265768</v>
       </c>
     </row>
     <row r="42">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1552786810</v>
+        <v>4462065500</v>
       </c>
     </row>
     <row r="43">
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>6392509588</v>
+        <v>5523462753</v>
       </c>
     </row>
     <row r="44">
@@ -2597,7 +2597,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3105534824</v>
+        <v>1033859885</v>
       </c>
     </row>
     <row r="45">
@@ -2645,7 +2645,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>5760862829</v>
+        <v>5683202986</v>
       </c>
     </row>
     <row r="46">
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>7416469176</v>
+        <v>964455364</v>
       </c>
     </row>
     <row r="47">
@@ -2743,7 +2743,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>5972250454</v>
+        <v>8209019631</v>
       </c>
     </row>
     <row r="48">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>697981740</v>
+        <v>3469538514</v>
       </c>
     </row>
     <row r="49">
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>9353122570</v>
+        <v>4650779548</v>
       </c>
     </row>
     <row r="50">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2329534243</v>
+        <v>638206829</v>
       </c>
     </row>
     <row r="51">
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>5262371932</v>
+        <v>1282048293</v>
       </c>
     </row>
     <row r="52">
@@ -2983,7 +2983,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4926877450</v>
+        <v>4315136326</v>
       </c>
     </row>
     <row r="53">
@@ -3033,7 +3033,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>2135855718</v>
+        <v>3980231415</v>
       </c>
     </row>
     <row r="54">
@@ -3081,7 +3081,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>7372268937</v>
+        <v>1083485294</v>
       </c>
     </row>
     <row r="55">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>8897564262</v>
+        <v>16538030</v>
       </c>
     </row>
     <row r="56">
@@ -3179,7 +3179,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1247225093</v>
+        <v>9084866000</v>
       </c>
     </row>
     <row r="57">
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>2973413867</v>
+        <v>1423518453</v>
       </c>
     </row>
     <row r="58">
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>9234319572</v>
+        <v>5656839533</v>
       </c>
     </row>
     <row r="59">
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3488251191</v>
+        <v>5917051790</v>
       </c>
     </row>
     <row r="60">
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4752102470</v>
+        <v>4336986179</v>
       </c>
     </row>
     <row r="61">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1051037965</v>
+        <v>3992174112</v>
       </c>
     </row>
     <row r="62">
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2749301737</v>
+        <v>9460047794</v>
       </c>
     </row>
     <row r="63">
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>8757447350</v>
+        <v>3446970571</v>
       </c>
     </row>
     <row r="64">
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>8204098194</v>
+        <v>445833005</v>
       </c>
     </row>
     <row r="65">
@@ -3613,7 +3613,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4680480086</v>
+        <v>5072387777</v>
       </c>
     </row>
     <row r="66">
@@ -3661,7 +3661,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2571683588</v>
+        <v>5806260419</v>
       </c>
     </row>
     <row r="67">
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2919887376</v>
+        <v>7393878860</v>
       </c>
     </row>
     <row r="68">
@@ -3759,7 +3759,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>7870313975</v>
+        <v>2206074540</v>
       </c>
     </row>
     <row r="69">
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3448651636</v>
+        <v>2665182836</v>
       </c>
     </row>
     <row r="70">
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>8332941834</v>
+        <v>5016223400</v>
       </c>
     </row>
     <row r="71">
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4381919305</v>
+        <v>8425933595</v>
       </c>
     </row>
     <row r="72">
@@ -3953,7 +3953,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>414226605</v>
+        <v>9415991514</v>
       </c>
     </row>
     <row r="73">
@@ -4001,7 +4001,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1796170427</v>
+        <v>3068359822</v>
       </c>
     </row>
     <row r="74">
@@ -4049,7 +4049,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>6701133894</v>
+        <v>7790343390</v>
       </c>
     </row>
     <row r="75">
@@ -4097,7 +4097,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>397923263</v>
+        <v>1604699634</v>
       </c>
     </row>
     <row r="76">
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2911930802</v>
+        <v>4935874988</v>
       </c>
     </row>
     <row r="77">
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1524368873</v>
+        <v>4287564680</v>
       </c>
     </row>
     <row r="78">
@@ -4243,7 +4243,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4314120637</v>
+        <v>1843212253</v>
       </c>
     </row>
     <row r="79">
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>9404047637</v>
+        <v>6746590929</v>
       </c>
     </row>
     <row r="80">
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>4183203722</v>
+        <v>7304143899</v>
       </c>
     </row>
     <row r="81">
@@ -4391,7 +4391,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>9052470076</v>
+        <v>5642288940</v>
       </c>
     </row>
     <row r="82">
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>7829237039</v>
+        <v>257312346</v>
       </c>
     </row>
     <row r="83">
@@ -4491,7 +4491,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3851768671</v>
+        <v>639832904</v>
       </c>
     </row>
     <row r="84">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>7176756687</v>
+        <v>8796980190</v>
       </c>
     </row>
     <row r="85">
@@ -4591,7 +4591,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>672961427</v>
+        <v>6506580165</v>
       </c>
     </row>
     <row r="86">
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>6722968949</v>
+        <v>8214109814</v>
       </c>
     </row>
     <row r="87">
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3543008604</v>
+        <v>6689796094</v>
       </c>
     </row>
     <row r="88">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>2051505815</v>
+        <v>9126229887</v>
       </c>
     </row>
     <row r="89">
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>2789735237</v>
+        <v>6547952957</v>
       </c>
     </row>
     <row r="90">
@@ -4831,7 +4831,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3374717724</v>
+        <v>7142338481</v>
       </c>
     </row>
     <row r="91">
@@ -4879,7 +4879,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>27368994</v>
+        <v>655163276</v>
       </c>
     </row>
     <row r="92">
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>5843543814</v>
+        <v>1619545360</v>
       </c>
     </row>
     <row r="93">
@@ -4975,7 +4975,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>9185134936</v>
+        <v>1805102547</v>
       </c>
     </row>
     <row r="94">
@@ -5023,7 +5023,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>6427661952</v>
+        <v>8519766694</v>
       </c>
     </row>
     <row r="95">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>6586511703</v>
+        <v>539108643</v>
       </c>
     </row>
     <row r="96">
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3899715907</v>
+        <v>5405002188</v>
       </c>
     </row>
     <row r="97">
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>9181137260</v>
+        <v>6396192259</v>
       </c>
     </row>
     <row r="98">
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4530326334</v>
+        <v>525352207</v>
       </c>
     </row>
     <row r="99">
@@ -5263,7 +5263,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>2111455604</v>
+        <v>8307125185</v>
       </c>
     </row>
     <row r="100">
@@ -5311,7 +5311,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3090839681</v>
+        <v>8513165016</v>
       </c>
     </row>
     <row r="101">
@@ -5359,7 +5359,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>9924774128</v>
+        <v>8146836655</v>
       </c>
     </row>
     <row r="102">
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3441992357</v>
+        <v>2753630606</v>
       </c>
     </row>
     <row r="103">
@@ -5455,7 +5455,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>7741463170</v>
+        <v>27508333</v>
       </c>
     </row>
     <row r="104">
@@ -5503,7 +5503,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>9344708902</v>
+        <v>5376308600</v>
       </c>
     </row>
     <row r="105">
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>9279235428</v>
+        <v>1785828517</v>
       </c>
     </row>
     <row r="106">
@@ -5599,7 +5599,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>9152429315</v>
+        <v>383910241</v>
       </c>
     </row>
     <row r="107">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>435894034</v>
+        <v>5715923906</v>
       </c>
     </row>
     <row r="108">
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>9002384361</v>
+        <v>9705539912</v>
       </c>
     </row>
     <row r="109">
@@ -5745,7 +5745,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>6861614413</v>
+        <v>1134589050</v>
       </c>
     </row>
     <row r="110">
@@ -5795,7 +5795,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>8170893699</v>
+        <v>9145294406</v>
       </c>
     </row>
     <row r="111">
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>8429830363</v>
+        <v>579015487</v>
       </c>
     </row>
     <row r="112">
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>9371313968</v>
+        <v>9210529436</v>
       </c>
     </row>
     <row r="113">
@@ -5939,7 +5939,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>5938824793</v>
+        <v>5691920574</v>
       </c>
     </row>
     <row r="114">
@@ -5989,7 +5989,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>8431334142</v>
+        <v>7264260624</v>
       </c>
     </row>
     <row r="115">
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>8555250299</v>
+        <v>4691835060</v>
       </c>
     </row>
     <row r="116">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>5499064216</v>
+        <v>326550710</v>
       </c>
     </row>
     <row r="117">
@@ -6135,7 +6135,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>373774043</v>
+        <v>7109711688</v>
       </c>
     </row>
     <row r="118">
@@ -6183,7 +6183,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>6907843474</v>
+        <v>9103333701</v>
       </c>
     </row>
     <row r="119">
@@ -6231,7 +6231,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2657251056</v>
+        <v>7745102674</v>
       </c>
     </row>
     <row r="120">
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1236861287</v>
+        <v>4219377071</v>
       </c>
     </row>
     <row r="121">
@@ -6329,7 +6329,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1479729877</v>
+        <v>5594810020</v>
       </c>
     </row>
     <row r="122">
@@ -6377,7 +6377,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>7929155396</v>
+        <v>3608473986</v>
       </c>
     </row>
     <row r="123">
@@ -6425,7 +6425,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1688186515</v>
+        <v>5484429257</v>
       </c>
     </row>
     <row r="124">
@@ -6473,7 +6473,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>7635716716</v>
+        <v>9377619454</v>
       </c>
     </row>
     <row r="125">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>4597717978</v>
+        <v>4987412239</v>
       </c>
     </row>
     <row r="126">
@@ -6569,7 +6569,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>8980886086</v>
+        <v>7831269993</v>
       </c>
     </row>
     <row r="127">
@@ -6617,7 +6617,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>5937002307</v>
+        <v>3329860802</v>
       </c>
     </row>
     <row r="128">
@@ -6665,7 +6665,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>534745991</v>
+        <v>1682785663</v>
       </c>
     </row>
     <row r="129">
@@ -6713,7 +6713,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4753762086</v>
+        <v>1256491905</v>
       </c>
     </row>
     <row r="130">
@@ -6761,7 +6761,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4975701011</v>
+        <v>34068785</v>
       </c>
     </row>
     <row r="131">
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>4760724429</v>
+        <v>6020605647</v>
       </c>
     </row>
     <row r="132">
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>9224813650</v>
+        <v>6682072906</v>
       </c>
     </row>
     <row r="133">
@@ -6905,7 +6905,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>2004907925</v>
+        <v>9071871203</v>
       </c>
     </row>
     <row r="134">
@@ -6953,7 +6953,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1303197375</v>
+        <v>8733542698</v>
       </c>
     </row>
     <row r="135">
@@ -7001,7 +7001,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>8286989527</v>
+        <v>718692556</v>
       </c>
     </row>
     <row r="136">
@@ -7049,7 +7049,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3467532712</v>
+        <v>4356268018</v>
       </c>
     </row>
     <row r="137">
@@ -7099,7 +7099,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3938237819</v>
+        <v>9617312083</v>
       </c>
     </row>
     <row r="138">
@@ -7149,7 +7149,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>7358534414</v>
+        <v>3311675740</v>
       </c>
     </row>
     <row r="139">
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>6946313452</v>
+        <v>6297810234</v>
       </c>
     </row>
     <row r="140">
@@ -7247,7 +7247,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>5774531</v>
+        <v>5134044372</v>
       </c>
     </row>
     <row r="141">
@@ -7295,7 +7295,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>4505972318</v>
+        <v>7582671210</v>
       </c>
     </row>
     <row r="142">
@@ -7343,7 +7343,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>153682006</v>
+        <v>6569248346</v>
       </c>
     </row>
     <row r="143">
@@ -7391,7 +7391,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>4838713216</v>
+        <v>2447239279</v>
       </c>
     </row>
     <row r="144">
@@ -7439,7 +7439,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>1040106892</v>
+        <v>9102543062</v>
       </c>
     </row>
     <row r="145">
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>5516554758</v>
+        <v>419486801</v>
       </c>
     </row>
     <row r="146">
@@ -7535,7 +7535,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>1764143821</v>
+        <v>9874234067</v>
       </c>
     </row>
     <row r="147">
@@ -7583,7 +7583,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>9615190776</v>
+        <v>8944756185</v>
       </c>
     </row>
     <row r="148">
@@ -7631,7 +7631,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>5595511583</v>
+        <v>1641162208</v>
       </c>
     </row>
     <row r="149">
@@ -7679,7 +7679,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>927845922</v>
+        <v>7386514238</v>
       </c>
     </row>
     <row r="150">
@@ -7727,7 +7727,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>9962291853</v>
+        <v>3381210685</v>
       </c>
     </row>
     <row r="151">
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1049500964</v>
+        <v>8195341976</v>
       </c>
     </row>
     <row r="152">
@@ -7823,7 +7823,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>2813450529</v>
+        <v>7414260936</v>
       </c>
     </row>
     <row r="153">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>6108167962</v>
+        <v>4963057669</v>
       </c>
     </row>
     <row r="154">
@@ -7919,7 +7919,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>9265615287</v>
+        <v>1356681584</v>
       </c>
     </row>
     <row r="155">
@@ -7967,7 +7967,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>5683669550</v>
+        <v>6798510171</v>
       </c>
     </row>
     <row r="156">
@@ -8015,7 +8015,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>6477772701</v>
+        <v>7932773416</v>
       </c>
     </row>
     <row r="157">
@@ -8063,7 +8063,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>823608546</v>
+        <v>3391153755</v>
       </c>
     </row>
     <row r="158">
@@ -8111,7 +8111,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>5189773023</v>
+        <v>989906940</v>
       </c>
     </row>
     <row r="159">
@@ -8161,7 +8161,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>9929729183</v>
+        <v>7080421226</v>
       </c>
     </row>
     <row r="160">
@@ -8209,7 +8209,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>6010139794</v>
+        <v>5267492013</v>
       </c>
     </row>
     <row r="161">
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>2810652637</v>
+        <v>8530722342</v>
       </c>
     </row>
     <row r="162">
@@ -8305,7 +8305,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>4807206676</v>
+        <v>4709386549</v>
       </c>
     </row>
     <row r="163">
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1829658333</v>
+        <v>9764531124</v>
       </c>
     </row>
     <row r="164">
@@ -8401,7 +8401,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>5148107221</v>
+        <v>6035491402</v>
       </c>
     </row>
     <row r="165">
@@ -8449,7 +8449,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>1489714936</v>
+        <v>7944210821</v>
       </c>
     </row>
     <row r="166">
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>335245356</v>
+        <v>9035610985</v>
       </c>
     </row>
     <row r="167">
@@ -8545,7 +8545,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>7798647759</v>
+        <v>1928826319</v>
       </c>
     </row>
     <row r="168">
@@ -8593,7 +8593,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>8531781125</v>
+        <v>4702406333</v>
       </c>
     </row>
     <row r="169">
@@ -8641,7 +8641,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2386861413</v>
+        <v>2841448250</v>
       </c>
     </row>
     <row r="170">
@@ -8689,7 +8689,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>9036240517</v>
+        <v>4672241906</v>
       </c>
     </row>
     <row r="171">
@@ -8737,7 +8737,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>1080825491</v>
+        <v>8701489479</v>
       </c>
     </row>
     <row r="172">
@@ -8785,7 +8785,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>2945263811</v>
+        <v>7399188954</v>
       </c>
     </row>
     <row r="173">
@@ -8833,7 +8833,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>9480304342</v>
+        <v>8681457866</v>
       </c>
     </row>
     <row r="174">
@@ -8881,7 +8881,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>557734838</v>
+        <v>7505336922</v>
       </c>
     </row>
     <row r="175">
@@ -8929,7 +8929,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1065512964</v>
+        <v>7635872190</v>
       </c>
     </row>
     <row r="176">
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2892405646</v>
+        <v>5151808465</v>
       </c>
     </row>
     <row r="177">
@@ -9025,7 +9025,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>530390556</v>
+        <v>9933628516</v>
       </c>
     </row>
     <row r="178">
@@ -9073,7 +9073,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>633106417</v>
+        <v>9980921099</v>
       </c>
     </row>
     <row r="179">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1402807516</v>
+        <v>9264988535</v>
       </c>
     </row>
     <row r="180">
@@ -9169,7 +9169,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>4382849225</v>
+        <v>7241804444</v>
       </c>
     </row>
     <row r="181">
@@ -9217,7 +9217,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>5101016662</v>
+        <v>398299850</v>
       </c>
     </row>
     <row r="182">
@@ -9267,7 +9267,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>112974438</v>
+        <v>975593789</v>
       </c>
     </row>
     <row r="183">
@@ -9317,7 +9317,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>836302478</v>
+        <v>2422021411</v>
       </c>
     </row>
     <row r="184">
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>281753636</v>
+        <v>1173793851</v>
       </c>
     </row>
     <row r="185">
@@ -9415,7 +9415,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>2549153719</v>
+        <v>8132281480</v>
       </c>
     </row>
     <row r="186">
@@ -9463,7 +9463,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1296378053</v>
+        <v>1129146167</v>
       </c>
     </row>
     <row r="187">
@@ -9511,7 +9511,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>2005900643</v>
+        <v>3222828662</v>
       </c>
     </row>
     <row r="188">
@@ -9559,7 +9559,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>4359589738</v>
+        <v>9784362137</v>
       </c>
     </row>
     <row r="189">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>6481759613</v>
+        <v>3714566304</v>
       </c>
     </row>
     <row r="190">
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>8063160969</v>
+        <v>1657936750</v>
       </c>
     </row>
     <row r="191">
@@ -9703,7 +9703,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1081595397</v>
+        <v>6639829504</v>
       </c>
     </row>
     <row r="192">
@@ -9751,7 +9751,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>715656075</v>
+        <v>3997519745</v>
       </c>
     </row>
     <row r="193">
@@ -9799,7 +9799,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>9373769349</v>
+        <v>4612394049</v>
       </c>
     </row>
     <row r="194">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2368705129</v>
+        <v>2638782088</v>
       </c>
     </row>
     <row r="195">
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>7740891671</v>
+        <v>8893484827</v>
       </c>
     </row>
     <row r="196">
@@ -9943,7 +9943,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>5095265618</v>
+        <v>1498074405</v>
       </c>
     </row>
     <row r="197">
@@ -9991,7 +9991,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>6947039766</v>
+        <v>7056262017</v>
       </c>
     </row>
     <row r="198">
@@ -10039,7 +10039,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>401337447</v>
+        <v>2427511817</v>
       </c>
     </row>
     <row r="199">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>4608529489</v>
+        <v>3383819209</v>
       </c>
     </row>
     <row r="200">
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1936887968</v>
+        <v>1637930998</v>
       </c>
     </row>
     <row r="201">
@@ -10183,7 +10183,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>225049594</v>
+        <v>1069336974</v>
       </c>
     </row>
     <row r="202">
@@ -10231,7 +10231,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>6929748442</v>
+        <v>3002069599</v>
       </c>
     </row>
     <row r="203">
@@ -10279,7 +10279,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3951074827</v>
+        <v>3837808992</v>
       </c>
     </row>
     <row r="204">
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>657322835</v>
+        <v>7451203893</v>
       </c>
     </row>
     <row r="205">
@@ -10375,7 +10375,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1792178539</v>
+        <v>1217946489</v>
       </c>
     </row>
     <row r="206">
@@ -10423,7 +10423,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>8445686589</v>
+        <v>1694097381</v>
       </c>
     </row>
     <row r="207">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2421069561</v>
+        <v>1168278127</v>
       </c>
     </row>
     <row r="208">
@@ -10523,7 +10523,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>8483288002</v>
+        <v>8124975009</v>
       </c>
     </row>
     <row r="209">
@@ -10573,7 +10573,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>2623015228</v>
+        <v>9640751511</v>
       </c>
     </row>
     <row r="210">
@@ -10623,7 +10623,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>9724920496</v>
+        <v>572058495</v>
       </c>
     </row>
     <row r="211">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>6570788869</v>
+        <v>7799912392</v>
       </c>
     </row>
     <row r="212">
@@ -10719,7 +10719,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>7307244390</v>
+        <v>9827925358</v>
       </c>
     </row>
     <row r="213">
@@ -10769,7 +10769,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>6641388493</v>
+        <v>4281899915</v>
       </c>
     </row>
     <row r="214">
@@ -10817,7 +10817,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>7061090061</v>
+        <v>6254273195</v>
       </c>
     </row>
     <row r="215">
@@ -10865,7 +10865,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>8450162870</v>
+        <v>7867207742</v>
       </c>
     </row>
     <row r="216">
@@ -10913,7 +10913,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>8673720162</v>
+        <v>9149458318</v>
       </c>
     </row>
     <row r="217">
@@ -10961,7 +10961,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>6112552020</v>
+        <v>5496771499</v>
       </c>
     </row>
     <row r="218">
@@ -11009,7 +11009,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1813242009</v>
+        <v>4678738634</v>
       </c>
     </row>
     <row r="219">
@@ -11057,7 +11057,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>8849904464</v>
+        <v>2469195491</v>
       </c>
     </row>
     <row r="220">
@@ -11105,7 +11105,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>7455779081</v>
+        <v>9539830755</v>
       </c>
     </row>
     <row r="221">
@@ -11153,7 +11153,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>6276056257</v>
+        <v>1865642224</v>
       </c>
     </row>
     <row r="222">
@@ -11201,7 +11201,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>3012887242</v>
+        <v>6227555783</v>
       </c>
     </row>
     <row r="223">
@@ -11249,7 +11249,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>6488689655</v>
+        <v>4259859928</v>
       </c>
     </row>
     <row r="224">
@@ -11297,7 +11297,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>5965251457</v>
+        <v>333485453</v>
       </c>
     </row>
     <row r="225">
@@ -11345,7 +11345,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>9320422416</v>
+        <v>4396460959</v>
       </c>
     </row>
     <row r="226">
@@ -11393,7 +11393,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>4368054508</v>
+        <v>4882526274</v>
       </c>
     </row>
     <row r="227">
@@ -11441,7 +11441,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>9138330165</v>
+        <v>864601215</v>
       </c>
     </row>
     <row r="228">
@@ -11489,7 +11489,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>6608680410</v>
+        <v>4199437566</v>
       </c>
     </row>
     <row r="229">
@@ -11537,7 +11537,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>4449625016</v>
+        <v>8264272713</v>
       </c>
     </row>
     <row r="230">
@@ -11585,7 +11585,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>5879952170</v>
+        <v>2367440339</v>
       </c>
     </row>
     <row r="231">
@@ -11633,7 +11633,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>8055461220</v>
+        <v>2755225878</v>
       </c>
     </row>
     <row r="232">
@@ -11681,7 +11681,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>6373916824</v>
+        <v>1793421750</v>
       </c>
     </row>
     <row r="233">
@@ -11729,7 +11729,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>5905919098</v>
+        <v>1287289500</v>
       </c>
     </row>
     <row r="234">
@@ -11777,7 +11777,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>2815078303</v>
+        <v>6814850276</v>
       </c>
     </row>
     <row r="235">
@@ -11825,7 +11825,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>474831258</v>
+        <v>9114615731</v>
       </c>
     </row>
     <row r="236">
@@ -11873,7 +11873,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>4802100546</v>
+        <v>1980555502</v>
       </c>
     </row>
     <row r="237">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>7045541378</v>
+        <v>8434228073</v>
       </c>
     </row>
     <row r="238">
@@ -11969,7 +11969,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>2949226918</v>
+        <v>6915127642</v>
       </c>
     </row>
     <row r="239">
@@ -12017,7 +12017,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>3994511778</v>
+        <v>6589173921</v>
       </c>
     </row>
     <row r="240">
@@ -12065,7 +12065,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>3415787742</v>
+        <v>7000639235</v>
       </c>
     </row>
     <row r="241">
@@ -12113,7 +12113,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>3017587489</v>
+        <v>9888888502</v>
       </c>
     </row>
     <row r="242">
@@ -12161,7 +12161,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>4814275715</v>
+        <v>5279156236</v>
       </c>
     </row>
     <row r="243">
@@ -12209,7 +12209,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>9223616432</v>
+        <v>8465880697</v>
       </c>
     </row>
     <row r="244">
@@ -12257,7 +12257,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>7636085530</v>
+        <v>9513275733</v>
       </c>
     </row>
     <row r="245">
@@ -12305,7 +12305,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>6943099065</v>
+        <v>902351086</v>
       </c>
     </row>
     <row r="246">
@@ -12353,7 +12353,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1737972741</v>
+        <v>1430916381</v>
       </c>
     </row>
     <row r="247">
@@ -12401,7 +12401,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3286290531</v>
+        <v>2891012813</v>
       </c>
     </row>
     <row r="248">
@@ -12449,7 +12449,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3124585845</v>
+        <v>1021788883</v>
       </c>
     </row>
     <row r="249">
@@ -12497,7 +12497,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>9606241159</v>
+        <v>5187898241</v>
       </c>
     </row>
     <row r="250">
@@ -12545,7 +12545,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>8371402478</v>
+        <v>1153660303</v>
       </c>
     </row>
     <row r="251">
@@ -12593,7 +12593,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>591156180</v>
+        <v>9075195648</v>
       </c>
     </row>
     <row r="252">
@@ -12641,7 +12641,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>912613960</v>
+        <v>5649545274</v>
       </c>
     </row>
     <row r="253">
@@ -12689,7 +12689,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>3565660768</v>
+        <v>6564320486</v>
       </c>
     </row>
     <row r="254">
@@ -12737,7 +12737,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>3160258172</v>
+        <v>3203846060</v>
       </c>
     </row>
     <row r="255">
@@ -12785,7 +12785,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>5707288203</v>
+        <v>391850514</v>
       </c>
     </row>
     <row r="256">
@@ -12833,7 +12833,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>8185480933</v>
+        <v>5490309011</v>
       </c>
     </row>
     <row r="257">
@@ -12881,7 +12881,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1959990258</v>
+        <v>6128709390</v>
       </c>
     </row>
     <row r="258">
@@ -12929,7 +12929,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>5896047249</v>
+        <v>4555879367</v>
       </c>
     </row>
     <row r="259">
@@ -12977,7 +12977,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>3060996823</v>
+        <v>2813712222</v>
       </c>
     </row>
     <row r="260">
@@ -13027,7 +13027,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>771799352</v>
+        <v>3989788164</v>
       </c>
     </row>
     <row r="261">
@@ -13075,7 +13075,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>2705338466</v>
+        <v>4343778748</v>
       </c>
     </row>
     <row r="262">
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>6753331169</v>
+        <v>1368384639</v>
       </c>
     </row>
     <row r="263">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>5525572280</v>
+        <v>3327981394</v>
       </c>
     </row>
     <row r="264">
@@ -13219,7 +13219,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>9990574817</v>
+        <v>4220529401</v>
       </c>
     </row>
     <row r="265">
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>5963823232</v>
+        <v>2063580811</v>
       </c>
     </row>
     <row r="266">
@@ -13315,7 +13315,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>5984357995</v>
+        <v>4296769032</v>
       </c>
     </row>
     <row r="267">
@@ -13363,7 +13363,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>7222701610</v>
+        <v>899878198</v>
       </c>
     </row>
     <row r="268">
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>6154112283</v>
+        <v>8063433398</v>
       </c>
     </row>
     <row r="269">
@@ -13459,7 +13459,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>7211600725</v>
+        <v>8314210893</v>
       </c>
     </row>
     <row r="270">
@@ -13507,7 +13507,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>3600657992</v>
+        <v>5038043774</v>
       </c>
     </row>
     <row r="271">
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>8711611070</v>
+        <v>5572133089</v>
       </c>
     </row>
     <row r="272">
@@ -13603,7 +13603,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>4726002610</v>
+        <v>1555914229</v>
       </c>
     </row>
     <row r="273">
@@ -13651,7 +13651,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>8392190585</v>
+        <v>3666496038</v>
       </c>
     </row>
     <row r="274">
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>8637716657</v>
+        <v>4869153683</v>
       </c>
     </row>
     <row r="275">
@@ -13747,7 +13747,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>2036367102</v>
+        <v>3732997091</v>
       </c>
     </row>
     <row r="276">
@@ -13795,7 +13795,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>2263231261</v>
+        <v>4159937539</v>
       </c>
     </row>
     <row r="277">
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>6774003498</v>
+        <v>7975354634</v>
       </c>
     </row>
     <row r="278">
@@ -13891,7 +13891,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>161841122</v>
+        <v>9453993114</v>
       </c>
     </row>
     <row r="279">
@@ -13939,7 +13939,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>6153239390</v>
+        <v>7727252504</v>
       </c>
     </row>
     <row r="280">
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>4690847617</v>
+        <v>4643770506</v>
       </c>
     </row>
     <row r="281">
@@ -14035,7 +14035,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>7909630477</v>
+        <v>6787551871</v>
       </c>
     </row>
     <row r="282">
@@ -14083,7 +14083,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>4216634043</v>
+        <v>7355127682</v>
       </c>
     </row>
     <row r="283">
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>9349122535</v>
+        <v>1105272865</v>
       </c>
     </row>
     <row r="284">
@@ -14179,7 +14179,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>3701638509</v>
+        <v>2543308834</v>
       </c>
     </row>
     <row r="285">
@@ -14227,7 +14227,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>2043976798</v>
+        <v>1545905923</v>
       </c>
     </row>
     <row r="286">
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>8921154660</v>
+        <v>407298058</v>
       </c>
     </row>
     <row r="287">
@@ -14323,7 +14323,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>3093716433</v>
+        <v>4759633849</v>
       </c>
     </row>
     <row r="288">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>9288875642</v>
+        <v>2825053485</v>
       </c>
     </row>
     <row r="289">
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>8802140390</v>
+        <v>381558228</v>
       </c>
     </row>
     <row r="290">
@@ -14467,7 +14467,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>6622461159</v>
+        <v>221209989</v>
       </c>
     </row>
     <row r="291">
@@ -14515,7 +14515,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>2906895261</v>
+        <v>7083279804</v>
       </c>
     </row>
     <row r="292">
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>952912281</v>
+        <v>951421915</v>
       </c>
     </row>
     <row r="293">
@@ -14611,7 +14611,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>1125294069</v>
+        <v>5044627039</v>
       </c>
     </row>
     <row r="294">
@@ -14659,7 +14659,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>4747069968</v>
+        <v>6469057818</v>
       </c>
     </row>
     <row r="295">
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>606556187</v>
+        <v>2460409424</v>
       </c>
     </row>
     <row r="296">
@@ -14755,7 +14755,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>5114861246</v>
+        <v>7102415176</v>
       </c>
     </row>
     <row r="297">
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>1841434160</v>
+        <v>8793949711</v>
       </c>
     </row>
     <row r="298">
@@ -14853,7 +14853,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>7386633473</v>
+        <v>5235717877</v>
       </c>
     </row>
     <row r="299">
@@ -14903,7 +14903,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>5717718995</v>
+        <v>1146221798</v>
       </c>
     </row>
     <row r="300">
@@ -14951,7 +14951,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>3959141939</v>
+        <v>251609940</v>
       </c>
     </row>
     <row r="301">
@@ -14999,7 +14999,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>8631932934</v>
+        <v>5640028824</v>
       </c>
     </row>
     <row r="302">
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>7545393550</v>
+        <v>846783326</v>
       </c>
     </row>
     <row r="303">
@@ -15095,7 +15095,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>4294787136</v>
+        <v>903631409</v>
       </c>
     </row>
     <row r="304">
@@ -15145,7 +15145,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>5650000798</v>
+        <v>4024379466</v>
       </c>
     </row>
     <row r="305">
@@ -15195,7 +15195,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>8257636195</v>
+        <v>9521948876</v>
       </c>
     </row>
     <row r="306">
@@ -15243,7 +15243,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>9465982560</v>
+        <v>4718146046</v>
       </c>
     </row>
     <row r="307">
@@ -15291,7 +15291,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>5988314700</v>
+        <v>130134003</v>
       </c>
     </row>
     <row r="308">
@@ -15341,7 +15341,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>9670775298</v>
+        <v>2862697418</v>
       </c>
     </row>
     <row r="309">
@@ -15389,7 +15389,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>9958855300</v>
+        <v>9664979197</v>
       </c>
     </row>
     <row r="310">
@@ -15437,7 +15437,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>3509993707</v>
+        <v>5964789088</v>
       </c>
     </row>
     <row r="311">
@@ -15487,7 +15487,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>7834877971</v>
+        <v>9402453243</v>
       </c>
     </row>
     <row r="312">
@@ -15535,7 +15535,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>7772620990</v>
+        <v>6915616885</v>
       </c>
     </row>
     <row r="313">
@@ -15583,7 +15583,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>1504107532</v>
+        <v>7708273099</v>
       </c>
     </row>
     <row r="314">
@@ -15631,7 +15631,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>4854416051</v>
+        <v>391249804</v>
       </c>
     </row>
     <row r="315">
@@ -15679,7 +15679,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>2618869827</v>
+        <v>3464751133</v>
       </c>
     </row>
     <row r="316">
@@ -15727,7 +15727,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>8963551482</v>
+        <v>1797922596</v>
       </c>
     </row>
     <row r="317">
@@ -15775,7 +15775,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>4926426905</v>
+        <v>7873301254</v>
       </c>
     </row>
     <row r="318">
@@ -15823,7 +15823,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>2230057495</v>
+        <v>67181524</v>
       </c>
     </row>
     <row r="319">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>4896575917</v>
+        <v>9996145762</v>
       </c>
     </row>
     <row r="320">
@@ -15919,7 +15919,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>6576204838</v>
+        <v>3940313272</v>
       </c>
     </row>
     <row r="321">
@@ -15967,7 +15967,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>1132637212</v>
+        <v>7541873180</v>
       </c>
     </row>
     <row r="322">
@@ -16015,7 +16015,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>9863477846</v>
+        <v>5377589033</v>
       </c>
     </row>
     <row r="323">
@@ -16063,7 +16063,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>649678849</v>
+        <v>3738948781</v>
       </c>
     </row>
     <row r="324">
@@ -16111,7 +16111,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>8375814125</v>
+        <v>1013111317</v>
       </c>
     </row>
     <row r="325">
@@ -16159,7 +16159,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>5488917917</v>
+        <v>1154755337</v>
       </c>
     </row>
     <row r="326">
@@ -16207,7 +16207,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>6406050162</v>
+        <v>8470513888</v>
       </c>
     </row>
     <row r="327">
@@ -16255,7 +16255,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>8845523981</v>
+        <v>2677185823</v>
       </c>
     </row>
     <row r="328">
@@ -16309,7 +16309,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>7378990597</v>
+        <v>521895935</v>
       </c>
     </row>
     <row r="329">
@@ -16357,7 +16357,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>4767623573</v>
+        <v>827484125</v>
       </c>
     </row>
     <row r="330">
@@ -16405,7 +16405,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>3080888263</v>
+        <v>7495733534</v>
       </c>
     </row>
     <row r="331">
@@ -16453,7 +16453,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>6853769881</v>
+        <v>1011635586</v>
       </c>
     </row>
     <row r="332">
@@ -16501,7 +16501,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>4234868681</v>
+        <v>251072972</v>
       </c>
     </row>
     <row r="333">
@@ -16549,7 +16549,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>3426092926</v>
+        <v>5642393949</v>
       </c>
     </row>
     <row r="334">
@@ -16597,7 +16597,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>3162005713</v>
+        <v>6081043271</v>
       </c>
     </row>
     <row r="335">
@@ -16645,7 +16645,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>9945966839</v>
+        <v>5770461063</v>
       </c>
     </row>
     <row r="336">
@@ -16693,7 +16693,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>9754785431</v>
+        <v>2097936451</v>
       </c>
     </row>
     <row r="337">
@@ -16741,7 +16741,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>6915084057</v>
+        <v>835094659</v>
       </c>
     </row>
     <row r="338">
@@ -16791,7 +16791,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>8799793620</v>
+        <v>1483483214</v>
       </c>
     </row>
     <row r="339">
@@ -16839,7 +16839,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>489247069</v>
+        <v>4474178516</v>
       </c>
     </row>
     <row r="340">
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>8692524679</v>
+        <v>4689426773</v>
       </c>
     </row>
     <row r="341">
@@ -16937,7 +16937,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>8930589704</v>
+        <v>959694012</v>
       </c>
     </row>
     <row r="342">
@@ -16985,7 +16985,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>6032364763</v>
+        <v>6960308085</v>
       </c>
     </row>
     <row r="343">
@@ -17033,7 +17033,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>6315527901</v>
+        <v>8343193152</v>
       </c>
     </row>
     <row r="344">
@@ -17081,7 +17081,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>4214921849</v>
+        <v>8917627412</v>
       </c>
     </row>
     <row r="345">
@@ -17129,7 +17129,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>6321126990</v>
+        <v>150184236</v>
       </c>
     </row>
     <row r="346">
@@ -17177,7 +17177,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>3427546057</v>
+        <v>1591171738</v>
       </c>
     </row>
     <row r="347">
@@ -17225,7 +17225,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>7155004740</v>
+        <v>3541944441</v>
       </c>
     </row>
     <row r="348">
@@ -17275,7 +17275,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>7779711419</v>
+        <v>7030949737</v>
       </c>
     </row>
     <row r="349">
@@ -17323,7 +17323,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>9195508459</v>
+        <v>7977845457</v>
       </c>
     </row>
     <row r="350">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>8143922799</v>
+        <v>9789256412</v>
       </c>
     </row>
     <row r="351">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>5111663898</v>
+        <v>3885704743</v>
       </c>
     </row>
     <row r="352">
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>8001735788</v>
+        <v>9487449642</v>
       </c>
     </row>
     <row r="353">
@@ -17517,7 +17517,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>3017618489</v>
+        <v>6938448487</v>
       </c>
     </row>
     <row r="354">
@@ -17565,7 +17565,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>7076163178</v>
+        <v>9800935131</v>
       </c>
     </row>
     <row r="355">
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>5967148578</v>
+        <v>6675122674</v>
       </c>
     </row>
     <row r="356">
@@ -17661,7 +17661,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>9414112468</v>
+        <v>5942164500</v>
       </c>
     </row>
     <row r="357">
@@ -17709,7 +17709,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>8392881953</v>
+        <v>6148617708</v>
       </c>
     </row>
     <row r="358">
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>8965476214</v>
+        <v>5715417513</v>
       </c>
     </row>
     <row r="359">
@@ -17805,7 +17805,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>5395569494</v>
+        <v>9301724019</v>
       </c>
     </row>
     <row r="360">
@@ -17853,7 +17853,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>8918172866</v>
+        <v>3928621712</v>
       </c>
     </row>
     <row r="361">
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>7231966956</v>
+        <v>9350612263</v>
       </c>
     </row>
     <row r="362">
@@ -17949,7 +17949,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>1968184847</v>
+        <v>1730019103</v>
       </c>
     </row>
     <row r="363">
@@ -17997,7 +17997,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>3563318398</v>
+        <v>3796550266</v>
       </c>
     </row>
     <row r="364">
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>2609622452</v>
+        <v>8787651559</v>
       </c>
     </row>
     <row r="365">
@@ -18093,7 +18093,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>5125676575</v>
+        <v>5049539392</v>
       </c>
     </row>
     <row r="366">
@@ -18141,7 +18141,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>7326002186</v>
+        <v>1899796348</v>
       </c>
     </row>
     <row r="367">
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>1562335222</v>
+        <v>6959176893</v>
       </c>
     </row>
     <row r="368">
@@ -18237,7 +18237,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>5381233045</v>
+        <v>9040744185</v>
       </c>
     </row>
     <row r="369">
@@ -18285,7 +18285,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>2670998486</v>
+        <v>7064291532</v>
       </c>
     </row>
     <row r="370">
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>2773968916</v>
+        <v>3671835739</v>
       </c>
     </row>
     <row r="371">
@@ -18381,7 +18381,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>6995485227</v>
+        <v>1146390288</v>
       </c>
     </row>
     <row r="372">
@@ -18429,7 +18429,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>4906860238</v>
+        <v>4752529196</v>
       </c>
     </row>
     <row r="373">
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>3212947872</v>
+        <v>2833146199</v>
       </c>
     </row>
     <row r="374">
@@ -18525,7 +18525,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>7977518350</v>
+        <v>3762052080</v>
       </c>
     </row>
     <row r="375">
@@ -18573,7 +18573,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>1582093303</v>
+        <v>5815963182</v>
       </c>
     </row>
     <row r="376">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>2099951800</v>
+        <v>9835119547</v>
       </c>
     </row>
     <row r="377">
@@ -18669,7 +18669,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>1680314544</v>
+        <v>6550650504</v>
       </c>
     </row>
     <row r="378">
@@ -18717,7 +18717,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>9179121851</v>
+        <v>2972713087</v>
       </c>
     </row>
     <row r="379">
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>3907841491</v>
+        <v>3762799425</v>
       </c>
     </row>
     <row r="380">
@@ -18813,7 +18813,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>186185423</v>
+        <v>7584467755</v>
       </c>
     </row>
     <row r="381">
@@ -18861,7 +18861,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>1998848974</v>
+        <v>7793922657</v>
       </c>
     </row>
     <row r="382">
@@ -18911,7 +18911,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>6992237272</v>
+        <v>5011596497</v>
       </c>
     </row>
     <row r="383">
@@ -18959,7 +18959,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>3346016826</v>
+        <v>7790834120</v>
       </c>
     </row>
     <row r="384">
@@ -19009,7 +19009,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>6252537058</v>
+        <v>6709856802</v>
       </c>
     </row>
     <row r="385">
@@ -19057,7 +19057,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>385534324</v>
+        <v>9560096343</v>
       </c>
     </row>
     <row r="386">
@@ -19105,7 +19105,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>7935392804</v>
+        <v>1926023070</v>
       </c>
     </row>
     <row r="387">
@@ -19153,7 +19153,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>8463602105</v>
+        <v>2930719582</v>
       </c>
     </row>
     <row r="388">
@@ -19201,7 +19201,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>4184911959</v>
+        <v>6089825442</v>
       </c>
     </row>
     <row r="389">
@@ -19249,7 +19249,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>3268066385</v>
+        <v>450174663</v>
       </c>
     </row>
     <row r="390">
@@ -19297,7 +19297,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>3139757867</v>
+        <v>7076075236</v>
       </c>
     </row>
     <row r="391">
@@ -19345,7 +19345,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>7625170154</v>
+        <v>238573665</v>
       </c>
     </row>
     <row r="392">
@@ -19393,7 +19393,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>5630241757</v>
+        <v>6974154107</v>
       </c>
     </row>
     <row r="393">
@@ -19441,7 +19441,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>7807153071</v>
+        <v>5520701919</v>
       </c>
     </row>
     <row r="394">
@@ -19489,7 +19489,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>8697821634</v>
+        <v>7572586915</v>
       </c>
     </row>
     <row r="395">
@@ -19537,7 +19537,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>6831586591</v>
+        <v>5030639645</v>
       </c>
     </row>
     <row r="396">
@@ -19585,7 +19585,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>8925508530</v>
+        <v>6482357986</v>
       </c>
     </row>
     <row r="397">
@@ -19635,7 +19635,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>9651800676</v>
+        <v>2773864404</v>
       </c>
     </row>
     <row r="398">
@@ -19683,7 +19683,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>5568537472</v>
+        <v>9210321674</v>
       </c>
     </row>
     <row r="399">
@@ -19731,7 +19731,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>4627573112</v>
+        <v>5373510179</v>
       </c>
     </row>
     <row r="400">
@@ -19779,7 +19779,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>3558361998</v>
+        <v>447324897</v>
       </c>
     </row>
     <row r="401">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>3660663891</v>
+        <v>7913477150</v>
       </c>
     </row>
     <row r="402">
@@ -19875,7 +19875,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>4726193396</v>
+        <v>1924686529</v>
       </c>
     </row>
     <row r="403">
@@ -19923,7 +19923,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>7774039679</v>
+        <v>6145691917</v>
       </c>
     </row>
     <row r="404">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>2260621738</v>
+        <v>2692687831</v>
       </c>
     </row>
     <row r="405">
@@ -20019,7 +20019,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>3472961729</v>
+        <v>9529374944</v>
       </c>
     </row>
     <row r="406">
@@ -20067,7 +20067,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>5056974803</v>
+        <v>9504194177</v>
       </c>
     </row>
     <row r="407">
@@ -20115,7 +20115,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>8296870669</v>
+        <v>7664161221</v>
       </c>
     </row>
     <row r="408">
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>9683187991</v>
+        <v>6095456050</v>
       </c>
     </row>
     <row r="409">
@@ -20215,7 +20215,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>6744142996</v>
+        <v>9658063236</v>
       </c>
     </row>
     <row r="410">
@@ -20263,7 +20263,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>9079151832</v>
+        <v>6427890749</v>
       </c>
     </row>
     <row r="411">
@@ -20313,7 +20313,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>4884995973</v>
+        <v>3478396837</v>
       </c>
     </row>
     <row r="412">
@@ -20361,7 +20361,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>3700996447</v>
+        <v>2688749959</v>
       </c>
     </row>
     <row r="413">
@@ -20409,7 +20409,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>7101610109</v>
+        <v>8818782068</v>
       </c>
     </row>
     <row r="414">
@@ -20457,7 +20457,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>20438487</v>
+        <v>5216945934</v>
       </c>
     </row>
     <row r="415">
@@ -20505,7 +20505,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>3426305870</v>
+        <v>714015997</v>
       </c>
     </row>
     <row r="416">
@@ -20553,7 +20553,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>6441409227</v>
+        <v>3403242879</v>
       </c>
     </row>
     <row r="417">
@@ -20601,7 +20601,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>515959124</v>
+        <v>6287307707</v>
       </c>
     </row>
     <row r="418">
@@ -20649,7 +20649,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>2571874242</v>
+        <v>8608495731</v>
       </c>
     </row>
     <row r="419">
@@ -20697,7 +20697,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>9797913519</v>
+        <v>9864918046</v>
       </c>
     </row>
     <row r="420">
@@ -20745,7 +20745,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>4121147852</v>
+        <v>589867174</v>
       </c>
     </row>
     <row r="421">
@@ -20793,7 +20793,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>2592069486</v>
+        <v>3035421599</v>
       </c>
     </row>
     <row r="422">
@@ -20841,7 +20841,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>5090865580</v>
+        <v>9638497453</v>
       </c>
     </row>
     <row r="423">
@@ -20889,7 +20889,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>4347912400</v>
+        <v>1280382792</v>
       </c>
     </row>
     <row r="424">
@@ -20937,7 +20937,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>290499431</v>
+        <v>5958167161</v>
       </c>
     </row>
     <row r="425">
@@ -20985,7 +20985,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>5510220733</v>
+        <v>54121867</v>
       </c>
     </row>
     <row r="426">
@@ -21033,7 +21033,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>1469430844</v>
+        <v>4259256474</v>
       </c>
     </row>
     <row r="427">
@@ -21081,7 +21081,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>8846798986</v>
+        <v>3981370277</v>
       </c>
     </row>
     <row r="428">
@@ -21129,7 +21129,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>4093728328</v>
+        <v>9802483304</v>
       </c>
     </row>
     <row r="429">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>7660758016</v>
+        <v>3785964345</v>
       </c>
     </row>
     <row r="430">
@@ -21225,7 +21225,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>7914558213</v>
+        <v>6964300684</v>
       </c>
     </row>
     <row r="431">
@@ -21273,7 +21273,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>1689026374</v>
+        <v>2557209413</v>
       </c>
     </row>
     <row r="432">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>304322324</v>
+        <v>6968322258</v>
       </c>
     </row>
     <row r="433">
@@ -21369,7 +21369,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>4104607659</v>
+        <v>9852580421</v>
       </c>
     </row>
     <row r="434">
@@ -21417,7 +21417,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>7271043200</v>
+        <v>633564686</v>
       </c>
     </row>
     <row r="435">
@@ -21465,7 +21465,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>6831132617</v>
+        <v>3688108071</v>
       </c>
     </row>
     <row r="436">
@@ -21513,7 +21513,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>1998403932</v>
+        <v>991892727</v>
       </c>
     </row>
     <row r="437">
@@ -21561,7 +21561,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>9452022890</v>
+        <v>5886623841</v>
       </c>
     </row>
     <row r="438">
@@ -21609,7 +21609,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>2849582101</v>
+        <v>8825486579</v>
       </c>
     </row>
     <row r="439">
@@ -21657,7 +21657,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>7098138239</v>
+        <v>3573940357</v>
       </c>
     </row>
     <row r="440">
@@ -21705,7 +21705,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>4234826758</v>
+        <v>2258005123</v>
       </c>
     </row>
     <row r="441">
@@ -21753,7 +21753,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>5274227049</v>
+        <v>2519347269</v>
       </c>
     </row>
     <row r="442">
@@ -21801,7 +21801,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>8729432367</v>
+        <v>3188755686</v>
       </c>
     </row>
     <row r="443">
@@ -21849,7 +21849,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>902157396</v>
+        <v>2373917459</v>
       </c>
     </row>
     <row r="444">
@@ -21897,7 +21897,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>1715651079</v>
+        <v>2726681600</v>
       </c>
     </row>
     <row r="445">
@@ -21945,7 +21945,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>9001713318</v>
+        <v>737752915</v>
       </c>
     </row>
     <row r="446">
@@ -21993,7 +21993,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>3293340012</v>
+        <v>8814588114</v>
       </c>
     </row>
     <row r="447">
@@ -22045,7 +22045,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>4817681162</v>
+        <v>7852727680</v>
       </c>
     </row>
     <row r="448">
@@ -22093,7 +22093,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>8352506692</v>
+        <v>7154558095</v>
       </c>
     </row>
     <row r="449">
@@ -22141,7 +22141,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>9482436413</v>
+        <v>4900174407</v>
       </c>
     </row>
     <row r="450">
@@ -22189,7 +22189,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>837078770</v>
+        <v>6868920919</v>
       </c>
     </row>
     <row r="451">
@@ -22237,7 +22237,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>1497839489</v>
+        <v>3621100388</v>
       </c>
     </row>
     <row r="452">
@@ -22285,7 +22285,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>114092307</v>
+        <v>8442109334</v>
       </c>
     </row>
     <row r="453">
@@ -22333,7 +22333,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>5336169157</v>
+        <v>9554054987</v>
       </c>
     </row>
     <row r="454">
@@ -22381,7 +22381,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>786481706</v>
+        <v>5503147120</v>
       </c>
     </row>
     <row r="455">
@@ -22429,7 +22429,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>5310235418</v>
+        <v>3130497806</v>
       </c>
     </row>
     <row r="456">
@@ -22477,7 +22477,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>6708943216</v>
+        <v>9994024209</v>
       </c>
     </row>
     <row r="457">
@@ -22525,7 +22525,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>3074278461</v>
+        <v>4971428544</v>
       </c>
     </row>
     <row r="458">
@@ -22573,7 +22573,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>5685684892</v>
+        <v>820070361</v>
       </c>
     </row>
     <row r="459">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>3024141911</v>
+        <v>4373764482</v>
       </c>
     </row>
     <row r="460">
@@ -22669,7 +22669,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>4303587292</v>
+        <v>786202459</v>
       </c>
     </row>
     <row r="461">
@@ -22717,7 +22717,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>7865833629</v>
+        <v>6923641949</v>
       </c>
     </row>
     <row r="462">
@@ -22765,7 +22765,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>6605151170</v>
+        <v>6492923940</v>
       </c>
     </row>
     <row r="463">
@@ -22813,7 +22813,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>5713954644</v>
+        <v>7060899413</v>
       </c>
     </row>
     <row r="464">
@@ -22861,7 +22861,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>9619317893</v>
+        <v>5355018517</v>
       </c>
     </row>
     <row r="465">
@@ -22911,7 +22911,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>6732857944</v>
+        <v>1805788863</v>
       </c>
     </row>
     <row r="466">
@@ -22959,7 +22959,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>9881632863</v>
+        <v>5605303922</v>
       </c>
     </row>
     <row r="467">
@@ -23007,7 +23007,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>2022634335</v>
+        <v>6550640003</v>
       </c>
     </row>
     <row r="468">
@@ -23055,7 +23055,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>2131196284</v>
+        <v>1867366333</v>
       </c>
     </row>
     <row r="469">
@@ -23105,7 +23105,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>4990050989</v>
+        <v>2554679084</v>
       </c>
     </row>
     <row r="470">
@@ -23155,7 +23155,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>2483257466</v>
+        <v>3232095930</v>
       </c>
     </row>
     <row r="471">
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>4423676484</v>
+        <v>6417598175</v>
       </c>
     </row>
     <row r="472">
@@ -23251,7 +23251,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>1079456941</v>
+        <v>3817164211</v>
       </c>
     </row>
     <row r="473">
@@ -23299,7 +23299,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>1953280246</v>
+        <v>6791938967</v>
       </c>
     </row>
     <row r="474">
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>6580619883</v>
+        <v>3557859801</v>
       </c>
     </row>
     <row r="475">
@@ -23395,7 +23395,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>3942215875</v>
+        <v>9764352642</v>
       </c>
     </row>
     <row r="476">
@@ -23443,7 +23443,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>7284498811</v>
+        <v>2877148340</v>
       </c>
     </row>
     <row r="477">
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>8772093006</v>
+        <v>7353816760</v>
       </c>
     </row>
     <row r="478">
@@ -23541,7 +23541,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>2361379168</v>
+        <v>6685030039</v>
       </c>
     </row>
     <row r="479">
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>7404561397</v>
+        <v>8436559792</v>
       </c>
     </row>
     <row r="480">
@@ -23637,7 +23637,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>5078629069</v>
+        <v>7475293633</v>
       </c>
     </row>
     <row r="481">
@@ -23685,7 +23685,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>934085942</v>
+        <v>130472543</v>
       </c>
     </row>
     <row r="482">
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>3275222676</v>
+        <v>5833440902</v>
       </c>
     </row>
     <row r="483">
@@ -23781,7 +23781,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>795037384</v>
+        <v>3799931835</v>
       </c>
     </row>
     <row r="484">
@@ -23829,7 +23829,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>7343370087</v>
+        <v>9133338062</v>
       </c>
     </row>
     <row r="485">
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>2347598003</v>
+        <v>3017403931</v>
       </c>
     </row>
     <row r="486">
@@ -23925,7 +23925,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>4196308582</v>
+        <v>7125771170</v>
       </c>
     </row>
     <row r="487">
@@ -23973,7 +23973,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>5174525743</v>
+        <v>3811494164</v>
       </c>
     </row>
     <row r="488">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>5354098186</v>
+        <v>5009880685</v>
       </c>
     </row>
     <row r="489">
@@ -24069,7 +24069,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>9837325939</v>
+        <v>5039044941</v>
       </c>
     </row>
     <row r="490">
@@ -24117,7 +24117,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>6060871266</v>
+        <v>3843541492</v>
       </c>
     </row>
     <row r="491">
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>6942768053</v>
+        <v>8056828288</v>
       </c>
     </row>
     <row r="492">
@@ -24213,7 +24213,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>8358897532</v>
+        <v>2252120222</v>
       </c>
     </row>
     <row r="493">
@@ -24261,7 +24261,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>9232210435</v>
+        <v>5463956153</v>
       </c>
     </row>
     <row r="494">
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>3241760417</v>
+        <v>4985232326</v>
       </c>
     </row>
     <row r="495">
@@ -24357,7 +24357,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>5970881523</v>
+        <v>8477298583</v>
       </c>
     </row>
     <row r="496">
@@ -24405,7 +24405,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>1617143780</v>
+        <v>8406463096</v>
       </c>
     </row>
     <row r="497">
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>229022454</v>
+        <v>5173575467</v>
       </c>
     </row>
     <row r="498">
@@ -24501,7 +24501,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>6076992044</v>
+        <v>3343024335</v>
       </c>
     </row>
     <row r="499">
@@ -24549,7 +24549,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>3650923580</v>
+        <v>7292981465</v>
       </c>
     </row>
     <row r="500">
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>1930337155</v>
+        <v>8837360991</v>
       </c>
     </row>
     <row r="501">
@@ -24645,7 +24645,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>5319606786</v>
+        <v>6487746772</v>
       </c>
     </row>
     <row r="502">
@@ -24693,7 +24693,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>1734126882</v>
+        <v>1709767107</v>
       </c>
     </row>
     <row r="503">
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>3264274908</v>
+        <v>2233226099</v>
       </c>
     </row>
     <row r="504">
@@ -24789,7 +24789,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>3466201757</v>
+        <v>5287594062</v>
       </c>
     </row>
     <row r="505">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>62999273</v>
+        <v>7154811259</v>
       </c>
     </row>
     <row r="506">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>7510661834</v>
+        <v>7413132815</v>
       </c>
     </row>
     <row r="507">
@@ -24935,7 +24935,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>3869699393</v>
+        <v>8567001650</v>
       </c>
     </row>
     <row r="508">
@@ -24985,7 +24985,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>8787517071</v>
+        <v>3382032601</v>
       </c>
     </row>
     <row r="509">
@@ -25035,7 +25035,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>717722685</v>
+        <v>3195980898</v>
       </c>
     </row>
     <row r="510">
@@ -25085,7 +25085,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>5265791497</v>
+        <v>8896386540</v>
       </c>
     </row>
     <row r="511">
@@ -25135,7 +25135,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>6777549228</v>
+        <v>3382295285</v>
       </c>
     </row>
     <row r="512">
@@ -25185,7 +25185,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>472145432</v>
+        <v>3665454933</v>
       </c>
     </row>
     <row r="513">
@@ -25235,7 +25235,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>6543708688</v>
+        <v>1466006247</v>
       </c>
     </row>
     <row r="514">
@@ -25281,7 +25281,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>6293656308</v>
+        <v>5605816041</v>
       </c>
     </row>
     <row r="515">
@@ -25327,7 +25327,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>6827284863</v>
+        <v>1138860171</v>
       </c>
     </row>
     <row r="516">
@@ -25373,7 +25373,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>9320734464</v>
+        <v>9452953148</v>
       </c>
     </row>
     <row r="517">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>9709568016</v>
+        <v>8858550881</v>
       </c>
     </row>
     <row r="518">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>805309022</v>
+        <v>6946658684</v>
       </c>
     </row>
     <row r="519">
@@ -25517,7 +25517,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>3715324532</v>
+        <v>5346245462</v>
       </c>
     </row>
     <row r="520">
@@ -25563,7 +25563,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>2595370655</v>
+        <v>29872046</v>
       </c>
     </row>
     <row r="521">
@@ -25609,7 +25609,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>4175737346</v>
+        <v>6835958203</v>
       </c>
     </row>
     <row r="522">
@@ -25657,7 +25657,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>4453031632</v>
+        <v>9572282441</v>
       </c>
     </row>
     <row r="523">
@@ -25703,7 +25703,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>3539284624</v>
+        <v>4355923605</v>
       </c>
     </row>
     <row r="524">
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>4508164987</v>
+        <v>1919360796</v>
       </c>
     </row>
     <row r="525">
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>4264411069</v>
+        <v>8662247181</v>
       </c>
     </row>
     <row r="526">
@@ -25841,7 +25841,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>1520519493</v>
+        <v>715816069</v>
       </c>
     </row>
     <row r="527">
@@ -25889,7 +25889,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>4839400974</v>
+        <v>8342928528</v>
       </c>
     </row>
     <row r="528">
@@ -25935,7 +25935,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>6226668085</v>
+        <v>951241410</v>
       </c>
     </row>
     <row r="529">
@@ -25981,7 +25981,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>4172073414</v>
+        <v>3485614194</v>
       </c>
     </row>
     <row r="530">
@@ -26027,7 +26027,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>1048297094</v>
+        <v>421231521</v>
       </c>
     </row>
     <row r="531">
@@ -26073,7 +26073,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>4745414653</v>
+        <v>5426588970</v>
       </c>
     </row>
     <row r="532">
@@ -26119,7 +26119,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>5927189754</v>
+        <v>4426257787</v>
       </c>
     </row>
     <row r="533">
@@ -26165,7 +26165,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>783917663</v>
+        <v>811179431</v>
       </c>
     </row>
     <row r="534">
@@ -26211,7 +26211,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>5243737233</v>
+        <v>8267084979</v>
       </c>
     </row>
     <row r="535">
@@ -26257,7 +26257,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>2050833687</v>
+        <v>7087837601</v>
       </c>
     </row>
     <row r="536">
@@ -26303,7 +26303,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>9511602596</v>
+        <v>8180880586</v>
       </c>
     </row>
     <row r="537">
@@ -26349,7 +26349,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>8206522151</v>
+        <v>4107111123</v>
       </c>
     </row>
     <row r="538">
@@ -26395,7 +26395,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>7555377927</v>
+        <v>3483984881</v>
       </c>
     </row>
     <row r="539">
@@ -26441,7 +26441,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>9669515468</v>
+        <v>6275795505</v>
       </c>
     </row>
     <row r="540">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>8762409184</v>
+        <v>5997201192</v>
       </c>
     </row>
     <row r="541">
@@ -26533,7 +26533,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>6401621612</v>
+        <v>9448781369</v>
       </c>
     </row>
     <row r="542">
@@ -26581,7 +26581,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>3354928111</v>
+        <v>4764835732</v>
       </c>
     </row>
     <row r="543">
@@ -26629,7 +26629,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>2640800923</v>
+        <v>4198024705</v>
       </c>
     </row>
     <row r="544">
@@ -26675,7 +26675,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>3996673054</v>
+        <v>3563845816</v>
       </c>
     </row>
     <row r="545">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>9212404681</v>
+        <v>9297491968</v>
       </c>
     </row>
     <row r="546">
@@ -26767,7 +26767,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>5069541699</v>
+        <v>6061134376</v>
       </c>
     </row>
     <row r="547">
@@ -26813,7 +26813,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>1653322801</v>
+        <v>3854900724</v>
       </c>
     </row>
     <row r="548">
@@ -26861,7 +26861,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>9414387862</v>
+        <v>6723427439</v>
       </c>
     </row>
     <row r="549">
@@ -26909,7 +26909,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>8663018230</v>
+        <v>9724005786</v>
       </c>
     </row>
     <row r="550">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>1485762727</v>
+        <v>7409786252</v>
       </c>
     </row>
     <row r="551">
@@ -27005,7 +27005,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>5654052017</v>
+        <v>3933258911</v>
       </c>
     </row>
     <row r="552">
@@ -27053,7 +27053,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>2685155986</v>
+        <v>292528819</v>
       </c>
     </row>
     <row r="553">
@@ -27099,7 +27099,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>6674901782</v>
+        <v>4508969451</v>
       </c>
     </row>
     <row r="554">
@@ -27145,7 +27145,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>4797253456</v>
+        <v>2950040529</v>
       </c>
     </row>
     <row r="555">
@@ -27191,7 +27191,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>4524711395</v>
+        <v>424555420</v>
       </c>
     </row>
     <row r="556">
@@ -27237,7 +27237,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>9836256350</v>
+        <v>9137058770</v>
       </c>
     </row>
     <row r="557">
@@ -27283,7 +27283,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>9788321091</v>
+        <v>3405788703</v>
       </c>
     </row>
     <row r="558">
@@ -27329,7 +27329,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>4248122381</v>
+        <v>2579070773</v>
       </c>
     </row>
     <row r="559">
@@ -27375,7 +27375,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>1175534952</v>
+        <v>8991882117</v>
       </c>
     </row>
     <row r="560">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>2190200083</v>
+        <v>5093248898</v>
       </c>
     </row>
     <row r="561">
@@ -27467,7 +27467,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>1625742685</v>
+        <v>4581985700</v>
       </c>
     </row>
     <row r="562">
@@ -27513,7 +27513,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>4324716580</v>
+        <v>9829478095</v>
       </c>
     </row>
     <row r="563">
@@ -27559,7 +27559,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>2556137722</v>
+        <v>5970993013</v>
       </c>
     </row>
     <row r="564">
@@ -27605,7 +27605,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>1945742076</v>
+        <v>5222106145</v>
       </c>
     </row>
     <row r="565">
@@ -27651,7 +27651,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>7245090589</v>
+        <v>4780370531</v>
       </c>
     </row>
     <row r="566">
@@ -27697,7 +27697,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>1700638327</v>
+        <v>6020444547</v>
       </c>
     </row>
     <row r="567">
@@ -27743,7 +27743,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>3406631279</v>
+        <v>8407210642</v>
       </c>
     </row>
     <row r="568">
@@ -27789,7 +27789,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>9452637957</v>
+        <v>5432601612</v>
       </c>
     </row>
     <row r="569">
@@ -27835,7 +27835,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>5416500434</v>
+        <v>4720742196</v>
       </c>
     </row>
     <row r="570">
@@ -27881,7 +27881,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>8840058248</v>
+        <v>2685560188</v>
       </c>
     </row>
     <row r="571">
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>1172518117</v>
+        <v>8526295831</v>
       </c>
     </row>
     <row r="572">
@@ -27973,7 +27973,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>9028253368</v>
+        <v>827683051</v>
       </c>
     </row>
     <row r="573">
@@ -28019,7 +28019,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>1119669508</v>
+        <v>544294059</v>
       </c>
     </row>
     <row r="574">
@@ -28065,7 +28065,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>613232417</v>
+        <v>5037334027</v>
       </c>
     </row>
     <row r="575">
@@ -28113,7 +28113,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>4451003030</v>
+        <v>28066965</v>
       </c>
     </row>
     <row r="576">
@@ -28161,7 +28161,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>4517949758</v>
+        <v>5375323257</v>
       </c>
     </row>
     <row r="577">
@@ -28209,7 +28209,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>7265095634</v>
+        <v>3273088121</v>
       </c>
     </row>
     <row r="578">
@@ -28257,7 +28257,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>5321841663</v>
+        <v>6459258223</v>
       </c>
     </row>
     <row r="579">
@@ -28305,7 +28305,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>3239153416</v>
+        <v>4104357994</v>
       </c>
     </row>
     <row r="580">
@@ -28351,7 +28351,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>64863735</v>
+        <v>9856945808</v>
       </c>
     </row>
     <row r="581">
@@ -28397,7 +28397,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>2571228290</v>
+        <v>6198148691</v>
       </c>
     </row>
     <row r="582">
@@ -28443,7 +28443,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>3610393569</v>
+        <v>8938726682</v>
       </c>
     </row>
     <row r="583">
@@ -28489,7 +28489,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>8509556613</v>
+        <v>7716050295</v>
       </c>
     </row>
     <row r="584">
@@ -28535,7 +28535,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>3904559391</v>
+        <v>9681524697</v>
       </c>
     </row>
     <row r="585">
@@ -28581,7 +28581,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>9981535217</v>
+        <v>8522917854</v>
       </c>
     </row>
     <row r="586">
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>4048131194</v>
+        <v>7201250061</v>
       </c>
     </row>
     <row r="587">
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>1201475649</v>
+        <v>4706070526</v>
       </c>
     </row>
     <row r="588">
@@ -28721,7 +28721,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>579950984</v>
+        <v>7460015982</v>
       </c>
     </row>
     <row r="589">
@@ -28767,7 +28767,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>830338596</v>
+        <v>3093239964</v>
       </c>
     </row>
     <row r="590">
@@ -28815,7 +28815,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>387006818</v>
+        <v>5919323086</v>
       </c>
     </row>
     <row r="591">
@@ -28861,7 +28861,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>339302095</v>
+        <v>2383821894</v>
       </c>
     </row>
     <row r="592">
@@ -28909,7 +28909,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>3604138751</v>
+        <v>4317121411</v>
       </c>
     </row>
     <row r="593">
@@ -28955,7 +28955,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>6916440721</v>
+        <v>7223045803</v>
       </c>
     </row>
     <row r="594">
@@ -29001,7 +29001,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>3113642206</v>
+        <v>4339692009</v>
       </c>
     </row>
     <row r="595">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>6164339344</v>
+        <v>1217909797</v>
       </c>
     </row>
     <row r="596">
@@ -29093,7 +29093,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>576698898</v>
+        <v>5143294107</v>
       </c>
     </row>
     <row r="597">
@@ -29139,7 +29139,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>7379607812</v>
+        <v>4225808595</v>
       </c>
     </row>
     <row r="598">
@@ -29185,7 +29185,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>6526737554</v>
+        <v>7852178775</v>
       </c>
     </row>
     <row r="599">
@@ -29233,7 +29233,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>7628297647</v>
+        <v>6966323846</v>
       </c>
     </row>
     <row r="600">
@@ -29279,7 +29279,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>5265666515</v>
+        <v>8396819338</v>
       </c>
     </row>
     <row r="601">
@@ -29325,7 +29325,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>4768725161</v>
+        <v>7513530115</v>
       </c>
     </row>
     <row r="602">
@@ -29371,7 +29371,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>3501630422</v>
+        <v>1070229244</v>
       </c>
     </row>
     <row r="603">
@@ -29417,7 +29417,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>4857055213</v>
+        <v>3146270378</v>
       </c>
     </row>
     <row r="604">
@@ -29463,7 +29463,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>4813789492</v>
+        <v>4443164583</v>
       </c>
     </row>
     <row r="605">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>6637790762</v>
+        <v>9521992893</v>
       </c>
     </row>
     <row r="606">
@@ -29557,7 +29557,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>1296103303</v>
+        <v>983274321</v>
       </c>
     </row>
     <row r="607">
@@ -29603,7 +29603,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>7819180751</v>
+        <v>7049673611</v>
       </c>
     </row>
     <row r="608">
@@ -29651,7 +29651,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>516636866</v>
+        <v>9928026765</v>
       </c>
     </row>
     <row r="609">
@@ -29699,7 +29699,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>8130558412</v>
+        <v>2675017961</v>
       </c>
     </row>
     <row r="610">
@@ -29747,7 +29747,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>6240159328</v>
+        <v>3822143629</v>
       </c>
     </row>
     <row r="611">
@@ -29793,7 +29793,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>6615295466</v>
+        <v>7166862039</v>
       </c>
     </row>
     <row r="612">
@@ -29841,7 +29841,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>9724179990</v>
+        <v>394781048</v>
       </c>
     </row>
     <row r="613">
@@ -29887,7 +29887,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>8597414535</v>
+        <v>2619402139</v>
       </c>
     </row>
     <row r="614">
@@ -29935,7 +29935,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>5719352260</v>
+        <v>933607079</v>
       </c>
     </row>
     <row r="615">
@@ -29981,7 +29981,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>8253940618</v>
+        <v>9263999052</v>
       </c>
     </row>
     <row r="616">
@@ -30027,7 +30027,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>9441926366</v>
+        <v>573227577</v>
       </c>
     </row>
     <row r="617">
@@ -30073,7 +30073,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>1178649679</v>
+        <v>6278975944</v>
       </c>
     </row>
     <row r="618">
@@ -30119,7 +30119,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>5588323539</v>
+        <v>8732970687</v>
       </c>
     </row>
     <row r="619">
@@ -30165,7 +30165,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>1545694807</v>
+        <v>8729841138</v>
       </c>
     </row>
     <row r="620">
@@ -30211,7 +30211,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>6343125386</v>
+        <v>2221458528</v>
       </c>
     </row>
     <row r="621">
@@ -30257,7 +30257,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>6691584164</v>
+        <v>9331429400</v>
       </c>
     </row>
     <row r="622">
@@ -30303,7 +30303,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>7040221037</v>
+        <v>8272182738</v>
       </c>
     </row>
     <row r="623">
@@ -30349,7 +30349,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>6879828366</v>
+        <v>266953315</v>
       </c>
     </row>
     <row r="624">
@@ -30395,7 +30395,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>3729138147</v>
+        <v>9448618454</v>
       </c>
     </row>
     <row r="625">
@@ -30441,7 +30441,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>6037958218</v>
+        <v>8946987634</v>
       </c>
     </row>
     <row r="626">
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>9266826738</v>
+        <v>1762747797</v>
       </c>
     </row>
     <row r="627">
@@ -30533,7 +30533,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>7423687140</v>
+        <v>1801808158</v>
       </c>
     </row>
     <row r="628">
@@ -30579,7 +30579,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>8285935659</v>
+        <v>2835361025</v>
       </c>
     </row>
     <row r="629">
@@ -30625,7 +30625,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>9848329975</v>
+        <v>3832879035</v>
       </c>
     </row>
     <row r="630">
@@ -30671,7 +30671,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>9628460512</v>
+        <v>1092239215</v>
       </c>
     </row>
     <row r="631">
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>8880955528</v>
+        <v>7777883710</v>
       </c>
     </row>
     <row r="632">
@@ -30765,7 +30765,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>4310786052</v>
+        <v>1434774202</v>
       </c>
     </row>
     <row r="633">
@@ -30811,7 +30811,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>2632555725</v>
+        <v>183919188</v>
       </c>
     </row>
     <row r="634">
@@ -30857,7 +30857,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>6017822463</v>
+        <v>2138423592</v>
       </c>
     </row>
     <row r="635">
@@ -30903,7 +30903,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>1720710815</v>
+        <v>2647193386</v>
       </c>
     </row>
     <row r="636">
@@ -30951,7 +30951,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>6892344790</v>
+        <v>2794571277</v>
       </c>
     </row>
     <row r="637">
@@ -30997,7 +30997,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>840218492</v>
+        <v>62962958</v>
       </c>
     </row>
     <row r="638">
@@ -31043,7 +31043,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>5600081195</v>
+        <v>2502074384</v>
       </c>
     </row>
     <row r="639">
@@ -31089,7 +31089,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>3458461235</v>
+        <v>4604795019</v>
       </c>
     </row>
     <row r="640">
@@ -31135,7 +31135,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>2120206901</v>
+        <v>8744979871</v>
       </c>
     </row>
     <row r="641">
@@ -31181,7 +31181,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>2962207818</v>
+        <v>222721483</v>
       </c>
     </row>
     <row r="642">
@@ -31227,7 +31227,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>7770843832</v>
+        <v>4501760222</v>
       </c>
     </row>
     <row r="643">
@@ -31273,7 +31273,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>6232995197</v>
+        <v>9399520256</v>
       </c>
     </row>
     <row r="644">
@@ -31321,7 +31321,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>4652219376</v>
+        <v>608530890</v>
       </c>
     </row>
     <row r="645">
@@ -31369,7 +31369,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>4840701371</v>
+        <v>4705033822</v>
       </c>
     </row>
     <row r="646">
@@ -31415,7 +31415,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>4943069222</v>
+        <v>565092135</v>
       </c>
     </row>
     <row r="647">
@@ -31463,7 +31463,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>1207536418</v>
+        <v>8070739160</v>
       </c>
     </row>
     <row r="648">
@@ -31511,7 +31511,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>4180024209</v>
+        <v>7337499972</v>
       </c>
     </row>
     <row r="649">
@@ -31559,7 +31559,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>740766965</v>
+        <v>1403041288</v>
       </c>
     </row>
     <row r="650">
@@ -31605,7 +31605,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>5022609707</v>
+        <v>5545938583</v>
       </c>
     </row>
     <row r="651">
@@ -31651,7 +31651,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>7077223882</v>
+        <v>6461125602</v>
       </c>
     </row>
     <row r="652">
@@ -31697,7 +31697,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>7913024278</v>
+        <v>9253510563</v>
       </c>
     </row>
     <row r="653">
@@ -31743,7 +31743,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>8916144639</v>
+        <v>5428589014</v>
       </c>
     </row>
     <row r="654">
@@ -31789,7 +31789,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>9246177348</v>
+        <v>3912059423</v>
       </c>
     </row>
     <row r="655">
@@ -31835,7 +31835,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>4902623370</v>
+        <v>1725335905</v>
       </c>
     </row>
     <row r="656">
@@ -31883,7 +31883,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>2771503452</v>
+        <v>9535739668</v>
       </c>
     </row>
     <row r="657">
@@ -31929,7 +31929,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>7704438288</v>
+        <v>3288566860</v>
       </c>
     </row>
     <row r="658">
@@ -31977,7 +31977,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>5260856915</v>
+        <v>541015953</v>
       </c>
     </row>
     <row r="659">
@@ -32023,7 +32023,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>1504324078</v>
+        <v>1095925394</v>
       </c>
     </row>
     <row r="660">
@@ -32069,7 +32069,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>1746655561</v>
+        <v>8286339360</v>
       </c>
     </row>
     <row r="661">
@@ -32117,7 +32117,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>9380665626</v>
+        <v>2624255597</v>
       </c>
     </row>
     <row r="662">
@@ -32165,7 +32165,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>8173010436</v>
+        <v>5335079101</v>
       </c>
     </row>
     <row r="663">
@@ -32211,7 +32211,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>7616494373</v>
+        <v>9000814990</v>
       </c>
     </row>
     <row r="664">
@@ -32257,7 +32257,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>406101500</v>
+        <v>4075020307</v>
       </c>
     </row>
     <row r="665">
@@ -32303,7 +32303,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>3624556566</v>
+        <v>9571548166</v>
       </c>
     </row>
     <row r="666">
@@ -32351,7 +32351,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>8961828037</v>
+        <v>7566580054</v>
       </c>
     </row>
     <row r="667">
@@ -32397,7 +32397,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>7544734885</v>
+        <v>3777829951</v>
       </c>
     </row>
     <row r="668">
@@ -32443,7 +32443,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>289317402</v>
+        <v>1503070444</v>
       </c>
     </row>
     <row r="669">
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>4543341372</v>
+        <v>6018234372</v>
       </c>
     </row>
     <row r="670">
@@ -32537,7 +32537,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>9115319408</v>
+        <v>2760951114</v>
       </c>
     </row>
     <row r="671">
@@ -32583,7 +32583,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>9274372363</v>
+        <v>8845815986</v>
       </c>
     </row>
     <row r="672">
@@ -32631,7 +32631,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>6290968252</v>
+        <v>5806098298</v>
       </c>
     </row>
     <row r="673">
@@ -32679,7 +32679,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>1577990826</v>
+        <v>4667994140</v>
       </c>
     </row>
     <row r="674">
@@ -32725,7 +32725,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>6050994777</v>
+        <v>6773307523</v>
       </c>
     </row>
     <row r="675">
@@ -32771,7 +32771,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>1460026203</v>
+        <v>1381912824</v>
       </c>
     </row>
     <row r="676">
@@ -32819,7 +32819,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>1573800521</v>
+        <v>2872443369</v>
       </c>
     </row>
     <row r="677">
@@ -32865,7 +32865,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>332288036</v>
+        <v>3351995526</v>
       </c>
     </row>
     <row r="678">
@@ -32911,7 +32911,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>9829840039</v>
+        <v>4050046791</v>
       </c>
     </row>
     <row r="679">
@@ -32957,7 +32957,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>3578674859</v>
+        <v>1700132288</v>
       </c>
     </row>
     <row r="680">
@@ -33005,7 +33005,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>7871882773</v>
+        <v>2877009146</v>
       </c>
     </row>
     <row r="681">
@@ -33053,7 +33053,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>6475314185</v>
+        <v>5681763635</v>
       </c>
     </row>
     <row r="682">
@@ -33101,7 +33101,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>4337064843</v>
+        <v>6673321786</v>
       </c>
     </row>
     <row r="683">
@@ -33149,7 +33149,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>7444308730</v>
+        <v>125743802</v>
       </c>
     </row>
     <row r="684">
@@ -33195,7 +33195,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>1214270280</v>
+        <v>8742168177</v>
       </c>
     </row>
     <row r="685">
@@ -33243,7 +33243,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>4138736747</v>
+        <v>3831103360</v>
       </c>
     </row>
     <row r="686">
@@ -33291,7 +33291,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>4435510204</v>
+        <v>944763554</v>
       </c>
     </row>
     <row r="687">
@@ -33337,7 +33337,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>5105406114</v>
+        <v>5775657668</v>
       </c>
     </row>
     <row r="688">
@@ -33383,7 +33383,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>3329772285</v>
+        <v>633644955</v>
       </c>
     </row>
     <row r="689">
@@ -33429,7 +33429,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>6425085255</v>
+        <v>6921932444</v>
       </c>
     </row>
     <row r="690">
@@ -33475,7 +33475,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>8973168903</v>
+        <v>750472949</v>
       </c>
     </row>
     <row r="691">
@@ -33521,7 +33521,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>2384247588</v>
+        <v>6057896635</v>
       </c>
     </row>
     <row r="692">
@@ -33569,7 +33569,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>1095802040</v>
+        <v>8873630077</v>
       </c>
     </row>
     <row r="693">
@@ -33617,7 +33617,7 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>5668937007</v>
+        <v>6142327642</v>
       </c>
     </row>
     <row r="694">
@@ -33665,7 +33665,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>9758349950</v>
+        <v>4206934486</v>
       </c>
     </row>
     <row r="695">
@@ -33713,7 +33713,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>5507092224</v>
+        <v>2908129443</v>
       </c>
     </row>
     <row r="696">
@@ -33759,7 +33759,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>9456997339</v>
+        <v>5066674314</v>
       </c>
     </row>
     <row r="697">
@@ -33807,7 +33807,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>368986877</v>
+        <v>2174123045</v>
       </c>
     </row>
     <row r="698">
@@ -33855,7 +33855,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>5360196646</v>
+        <v>4546113032</v>
       </c>
     </row>
     <row r="699">
@@ -33901,7 +33901,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>6792495933</v>
+        <v>7708346805</v>
       </c>
     </row>
     <row r="700">
@@ -33947,7 +33947,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>8585869553</v>
+        <v>2005154761</v>
       </c>
     </row>
     <row r="701">
@@ -33993,7 +33993,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>7640031477</v>
+        <v>4827873672</v>
       </c>
     </row>
     <row r="702">
@@ -34043,7 +34043,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>5630952809</v>
+        <v>7128323246</v>
       </c>
     </row>
     <row r="703">
@@ -34091,7 +34091,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>3915294833</v>
+        <v>2186478768</v>
       </c>
     </row>
     <row r="704">
@@ -34139,7 +34139,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>40870403</v>
+        <v>5802707841</v>
       </c>
     </row>
     <row r="705">
@@ -34187,7 +34187,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>62487876</v>
+        <v>1950407600</v>
       </c>
     </row>
     <row r="706">
@@ -34235,7 +34235,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>61465111</v>
+        <v>8125390778</v>
       </c>
     </row>
     <row r="707">
@@ -34283,7 +34283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>9099129047</v>
+        <v>9122579485</v>
       </c>
     </row>
     <row r="708">
@@ -34331,7 +34331,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>6165768162</v>
+        <v>8084125818</v>
       </c>
     </row>
     <row r="709">
@@ -34379,7 +34379,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>6186809789</v>
+        <v>5458285103</v>
       </c>
     </row>
     <row r="710">
@@ -34427,7 +34427,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>6393888987</v>
+        <v>78966006</v>
       </c>
     </row>
     <row r="711">
@@ -34475,7 +34475,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>5407892761</v>
+        <v>4277982152</v>
       </c>
     </row>
     <row r="712">
@@ -34523,7 +34523,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>8665602256</v>
+        <v>133695667</v>
       </c>
     </row>
     <row r="713">
@@ -34571,7 +34571,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>990622598</v>
+        <v>2813450277</v>
       </c>
     </row>
     <row r="714">
@@ -34621,7 +34621,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>1985580770</v>
+        <v>6844463742</v>
       </c>
     </row>
     <row r="715">
@@ -34669,7 +34669,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>9302129567</v>
+        <v>3072099899</v>
       </c>
     </row>
     <row r="716">
@@ -34717,7 +34717,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>7305238785</v>
+        <v>4161755580</v>
       </c>
     </row>
     <row r="717">
@@ -34765,7 +34765,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>6321336278</v>
+        <v>7147880551</v>
       </c>
     </row>
     <row r="718">
@@ -34813,7 +34813,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>6272541877</v>
+        <v>5389126768</v>
       </c>
     </row>
     <row r="719">
@@ -34861,7 +34861,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>2201201338</v>
+        <v>3989526051</v>
       </c>
     </row>
     <row r="720">
@@ -34909,7 +34909,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>881123476</v>
+        <v>3819107259</v>
       </c>
     </row>
     <row r="721">
@@ -34957,7 +34957,7 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>8024287024</v>
+        <v>7767163862</v>
       </c>
     </row>
     <row r="722">
@@ -35005,7 +35005,7 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>4107298489</v>
+        <v>9850403979</v>
       </c>
     </row>
     <row r="723">
@@ -35053,7 +35053,7 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>2709361152</v>
+        <v>8205389486</v>
       </c>
     </row>
     <row r="724">
@@ -35101,7 +35101,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>7134161470</v>
+        <v>5152700042</v>
       </c>
     </row>
     <row r="725">
@@ -35149,7 +35149,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>7880079747</v>
+        <v>2637394974</v>
       </c>
     </row>
     <row r="726">
@@ -35197,7 +35197,7 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>2793084878</v>
+        <v>419319699</v>
       </c>
     </row>
     <row r="727">
@@ -35245,7 +35245,7 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>2602406854</v>
+        <v>7967226284</v>
       </c>
     </row>
     <row r="728">
@@ -35293,7 +35293,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>4187077777</v>
+        <v>87570600</v>
       </c>
     </row>
     <row r="729">
@@ -35341,7 +35341,7 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>9101143883</v>
+        <v>6249871955</v>
       </c>
     </row>
     <row r="730">
@@ -35389,7 +35389,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>2774920829</v>
+        <v>6678066882</v>
       </c>
     </row>
     <row r="731">
@@ -35437,7 +35437,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>5038651800</v>
+        <v>6527035057</v>
       </c>
     </row>
     <row r="732">
@@ -35485,7 +35485,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>4971157246</v>
+        <v>4074319976</v>
       </c>
     </row>
     <row r="733">
@@ -35533,7 +35533,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>2133370123</v>
+        <v>2496594633</v>
       </c>
     </row>
     <row r="734">
@@ -35581,7 +35581,7 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>8884616108</v>
+        <v>3937458607</v>
       </c>
     </row>
     <row r="735">
@@ -35629,7 +35629,7 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>3964650531</v>
+        <v>7096563411</v>
       </c>
     </row>
     <row r="736">
@@ -35677,7 +35677,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>1972174159</v>
+        <v>9767807056</v>
       </c>
     </row>
     <row r="737">
@@ -35725,7 +35725,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>3592564533</v>
+        <v>5703203177</v>
       </c>
     </row>
     <row r="738">
@@ -35769,7 +35769,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>3141998535</v>
+        <v>7252308510</v>
       </c>
     </row>
     <row r="739">
@@ -35817,7 +35817,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>7418754849</v>
+        <v>8834285442</v>
       </c>
     </row>
     <row r="740">
@@ -35865,7 +35865,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>6312010158</v>
+        <v>5460515993</v>
       </c>
     </row>
     <row r="741">
@@ -35915,7 +35915,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>7940525658</v>
+        <v>1694020044</v>
       </c>
     </row>
     <row r="742">
@@ -35963,7 +35963,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>3237813551</v>
+        <v>4246046672</v>
       </c>
     </row>
     <row r="743">
@@ -36011,7 +36011,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>5206381727</v>
+        <v>6814007280</v>
       </c>
     </row>
     <row r="744">
@@ -36059,7 +36059,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>3562987491</v>
+        <v>9710602623</v>
       </c>
     </row>
     <row r="745">
@@ -36107,7 +36107,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>6826931335</v>
+        <v>4055362478</v>
       </c>
     </row>
     <row r="746">
@@ -36155,7 +36155,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>2914340688</v>
+        <v>643612755</v>
       </c>
     </row>
     <row r="747">
@@ -36203,7 +36203,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>795937982</v>
+        <v>5434615153</v>
       </c>
     </row>
     <row r="748">
@@ -36251,7 +36251,7 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>5134600226</v>
+        <v>1776152231</v>
       </c>
     </row>
     <row r="749">
@@ -36299,7 +36299,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>8370732950</v>
+        <v>2017930899</v>
       </c>
     </row>
     <row r="750">
@@ -36347,7 +36347,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>5534975888</v>
+        <v>3402949684</v>
       </c>
     </row>
     <row r="751">
@@ -36395,7 +36395,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>365837744</v>
+        <v>5863056</v>
       </c>
     </row>
     <row r="752">
@@ -36443,7 +36443,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>9843239646</v>
+        <v>2419517713</v>
       </c>
     </row>
     <row r="753">
@@ -36491,7 +36491,7 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>9574166948</v>
+        <v>9638533857</v>
       </c>
     </row>
     <row r="754">
@@ -36539,7 +36539,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>5150715017</v>
+        <v>1145264908</v>
       </c>
     </row>
     <row r="755">
@@ -36587,7 +36587,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>6955123600</v>
+        <v>6133311964</v>
       </c>
     </row>
     <row r="756">
@@ -36635,7 +36635,7 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>1946320908</v>
+        <v>2052389396</v>
       </c>
     </row>
     <row r="757">
@@ -36683,7 +36683,7 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>2485433820</v>
+        <v>2330261432</v>
       </c>
     </row>
     <row r="758">
@@ -36731,7 +36731,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>9277504966</v>
+        <v>859637857</v>
       </c>
     </row>
     <row r="759">
@@ -36775,7 +36775,7 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>7234046326</v>
+        <v>8246027657</v>
       </c>
     </row>
     <row r="760">
@@ -36819,7 +36819,7 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>3651482177</v>
+        <v>2696580511</v>
       </c>
     </row>
     <row r="761">
@@ -36863,7 +36863,7 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>6284782254</v>
+        <v>595446784</v>
       </c>
     </row>
     <row r="762">
@@ -36907,7 +36907,7 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>5949471793</v>
+        <v>5997887323</v>
       </c>
     </row>
     <row r="763">
@@ -36951,7 +36951,7 @@
         </is>
       </c>
       <c r="P763" t="n">
-        <v>5746051705</v>
+        <v>7393371367</v>
       </c>
     </row>
     <row r="764">
@@ -36995,7 +36995,7 @@
         </is>
       </c>
       <c r="P764" t="n">
-        <v>3105591298</v>
+        <v>8606039414</v>
       </c>
     </row>
     <row r="765">
@@ -37039,7 +37039,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>2900495119</v>
+        <v>1079908407</v>
       </c>
     </row>
     <row r="766">
@@ -37083,7 +37083,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>4061429251</v>
+        <v>9946649261</v>
       </c>
     </row>
     <row r="767">
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>9753912839</v>
+        <v>703975255</v>
       </c>
     </row>
     <row r="768">
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>7523499711</v>
+        <v>5227990327</v>
       </c>
     </row>
     <row r="769">
@@ -37215,7 +37215,7 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>2024399996</v>
+        <v>9888235318</v>
       </c>
     </row>
     <row r="770">
@@ -37259,7 +37259,7 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>3779283692</v>
+        <v>7150044192</v>
       </c>
     </row>
     <row r="771">
@@ -37303,7 +37303,7 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>2947018558</v>
+        <v>10102713</v>
       </c>
     </row>
     <row r="772">
@@ -37347,7 +37347,7 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>4275773964</v>
+        <v>9190279918</v>
       </c>
     </row>
     <row r="773">
@@ -37391,7 +37391,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>6040837893</v>
+        <v>7683174840</v>
       </c>
     </row>
     <row r="774">
@@ -37435,7 +37435,7 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>2740762542</v>
+        <v>9560061942</v>
       </c>
     </row>
     <row r="775">
@@ -37479,7 +37479,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>3607261206</v>
+        <v>7929763841</v>
       </c>
     </row>
     <row r="776">
@@ -37523,7 +37523,7 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>5491527063</v>
+        <v>5698290181</v>
       </c>
     </row>
     <row r="777">
@@ -37567,7 +37567,7 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>2268909278</v>
+        <v>2885796200</v>
       </c>
     </row>
     <row r="778">
@@ -37611,7 +37611,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>2364201165</v>
+        <v>638390943</v>
       </c>
     </row>
     <row r="779">
@@ -37655,7 +37655,7 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>616458999</v>
+        <v>5228278396</v>
       </c>
     </row>
     <row r="780">
@@ -37699,7 +37699,7 @@
         </is>
       </c>
       <c r="P780" t="n">
-        <v>8335693901</v>
+        <v>5115541813</v>
       </c>
     </row>
     <row r="781">
@@ -37743,7 +37743,7 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>45389194</v>
+        <v>8823166043</v>
       </c>
     </row>
     <row r="782">
@@ -37787,7 +37787,7 @@
         </is>
       </c>
       <c r="P782" t="n">
-        <v>3997583352</v>
+        <v>5418241262</v>
       </c>
     </row>
     <row r="783">
@@ -37831,7 +37831,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>8217078040</v>
+        <v>680026588</v>
       </c>
     </row>
     <row r="784">
@@ -37875,7 +37875,7 @@
         </is>
       </c>
       <c r="P784" t="n">
-        <v>7666005450</v>
+        <v>6673879915</v>
       </c>
     </row>
     <row r="785">
@@ -37919,7 +37919,7 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>5639596572</v>
+        <v>190795958</v>
       </c>
     </row>
     <row r="786">
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>3588720841</v>
+        <v>222599274</v>
       </c>
     </row>
     <row r="787">
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>6055636374</v>
+        <v>7086403007</v>
       </c>
     </row>
     <row r="788">
@@ -38051,7 +38051,7 @@
         </is>
       </c>
       <c r="P788" t="n">
-        <v>2343410004</v>
+        <v>9360711037</v>
       </c>
     </row>
     <row r="789">
@@ -38095,7 +38095,7 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>205170571</v>
+        <v>7143720288</v>
       </c>
     </row>
     <row r="790">
@@ -38139,7 +38139,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>101810000</v>
+        <v>9784568768</v>
       </c>
     </row>
     <row r="791">
@@ -38183,7 +38183,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>1406867831</v>
+        <v>5619238320</v>
       </c>
     </row>
     <row r="792">
@@ -38227,7 +38227,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>374461811</v>
+        <v>6358479750</v>
       </c>
     </row>
     <row r="793">
@@ -38271,7 +38271,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>6152731900</v>
+        <v>7826726796</v>
       </c>
     </row>
     <row r="794">
@@ -38315,7 +38315,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>3050846991</v>
+        <v>9962190406</v>
       </c>
     </row>
     <row r="795">
@@ -38359,7 +38359,7 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>701386791</v>
+        <v>3911324206</v>
       </c>
     </row>
     <row r="796">
@@ -38403,7 +38403,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>982467881</v>
+        <v>7802860948</v>
       </c>
     </row>
     <row r="797">
@@ -38447,7 +38447,7 @@
         </is>
       </c>
       <c r="P797" t="n">
-        <v>4598295362</v>
+        <v>2456414962</v>
       </c>
     </row>
     <row r="798">
@@ -38485,7 +38485,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>1691493391</v>
+        <v>1164055734</v>
       </c>
     </row>
   </sheetData>
